--- a/Excel_Files/Stats_Populations/1.5_cm/784_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1.5_cm/784_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002657170706721464</v>
+        <v>0.002198944148505429</v>
       </c>
       <c r="D2">
-        <v>0.0004434317859073192</v>
+        <v>0.00225957592701753</v>
       </c>
       <c r="E2">
-        <v>0.0003863183097742978</v>
+        <v>0.002277303285477351</v>
       </c>
       <c r="F2">
-        <v>0.0003902368515570364</v>
+        <v>0.00223736646348743</v>
       </c>
       <c r="G2">
-        <v>0.0002101623954055056</v>
+        <v>0.002062009899084099</v>
       </c>
       <c r="H2">
-        <v>0.0004434317859073192</v>
+        <v>0.002277303285477351</v>
       </c>
       <c r="I2">
-        <v>0.0005505809389928156</v>
+        <v>0.002648560255635561</v>
       </c>
       <c r="J2">
-        <v>0.0006167122663422069</v>
+        <v>0.002418034172935543</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001542493788765175</v>
+        <v>0.001874705032988798</v>
       </c>
       <c r="D3">
-        <v>0.0003830611935592398</v>
+        <v>0.002067197973252675</v>
       </c>
       <c r="E3">
-        <v>0.0002577173193015779</v>
+        <v>0.002053381268329036</v>
       </c>
       <c r="F3">
-        <v>0.0001712427296205242</v>
+        <v>0.001907258089724466</v>
       </c>
       <c r="G3">
-        <v>0.0001599132500276975</v>
+        <v>0.001834142799310895</v>
       </c>
       <c r="H3">
-        <v>0.000246966719875543</v>
+        <v>0.002012308692570242</v>
       </c>
       <c r="I3">
-        <v>0.0002837119316637794</v>
+        <v>0.002153518438688881</v>
       </c>
       <c r="J3">
-        <v>0.0001675974642238439</v>
+        <v>0.00199799262314608</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001014154805982953</v>
+        <v>0.001610225766469272</v>
       </c>
       <c r="D4">
-        <v>0.0001886089239915496</v>
+        <v>0.001827136985986075</v>
       </c>
       <c r="E4">
-        <v>0.0001734694414815503</v>
+        <v>0.001871246879854856</v>
       </c>
       <c r="F4">
-        <v>7.225087055953061E-05</v>
+        <v>0.001402774499795073</v>
       </c>
       <c r="G4">
-        <v>6.317187944299603E-05</v>
+        <v>0.001324784955288517</v>
       </c>
       <c r="H4">
-        <v>0.0001274882558898607</v>
+        <v>0.001723058304031024</v>
       </c>
       <c r="I4">
-        <v>0.000175948766909172</v>
+        <v>0.001975950974328079</v>
       </c>
       <c r="J4">
-        <v>5.321500698676486E-05</v>
+        <v>0.001249028208803449</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>6.741060885670474E-06</v>
+        <v>0.0004770491716359751</v>
       </c>
       <c r="D5">
-        <v>8.349314686132406E-06</v>
+        <v>0.0005227951049570907</v>
       </c>
       <c r="E5">
-        <v>7.77495130402437E-06</v>
+        <v>0.0004983814791046118</v>
       </c>
       <c r="F5">
-        <v>4.034632789535297E-06</v>
+        <v>0.000370865135838614</v>
       </c>
       <c r="G5">
-        <v>3.017076690619795E-06</v>
+        <v>0.0003227713467908229</v>
       </c>
       <c r="H5">
-        <v>4.927219988320466E-06</v>
+        <v>0.0004049190728766729</v>
       </c>
       <c r="I5">
-        <v>7.146546223252754E-06</v>
+        <v>0.0004742458605305122</v>
       </c>
       <c r="J5">
-        <v>4.534215801638988E-06</v>
+        <v>0.0003870504751574607</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.320494258923959E-06</v>
+        <v>0.0003863504119975007</v>
       </c>
       <c r="D6">
-        <v>4.689778108556764E-06</v>
+        <v>0.000403359744148281</v>
       </c>
       <c r="E6">
-        <v>3.921139599773338E-06</v>
+        <v>0.0003687611172276783</v>
       </c>
       <c r="F6">
-        <v>1.936720094226462E-06</v>
+        <v>0.0002618954046876693</v>
       </c>
       <c r="G6">
-        <v>1.699908573847986E-06</v>
+        <v>0.0002481899143062046</v>
       </c>
       <c r="H6">
-        <v>2.269220193335759E-06</v>
+        <v>0.0002801257584853547</v>
       </c>
       <c r="I6">
-        <v>4.29720134329582E-06</v>
+        <v>0.0003704545859579936</v>
       </c>
       <c r="J6">
-        <v>2.502129085689088E-06</v>
+        <v>0.0002806535987047044</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.114305478088839E-06</v>
+        <v>0.000271977757439842</v>
       </c>
       <c r="D7">
-        <v>2.454187672242998E-06</v>
+        <v>0.0002946821332892476</v>
       </c>
       <c r="E7">
-        <v>1.042789758123528E-06</v>
+        <v>0.0001902651432977663</v>
       </c>
       <c r="F7">
-        <v>6.367624114587707E-07</v>
+        <v>0.0001552622968645326</v>
       </c>
       <c r="G7">
-        <v>8.498579345315411E-07</v>
+        <v>0.0001702398113694428</v>
       </c>
       <c r="H7">
-        <v>6.367624114587707E-07</v>
+        <v>0.0001552622968645326</v>
       </c>
       <c r="I7">
-        <v>2.186573010130084E-06</v>
+        <v>0.0002772588947224654</v>
       </c>
       <c r="J7">
-        <v>1.688148395188457E-06</v>
+        <v>0.0002353215670603206</v>
       </c>
     </row>
   </sheetData>
